--- a/biology/Histoire de la zoologie et de la botanique/Thomas_van_der_Hammen/Thomas_van_der_Hammen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_van_der_Hammen/Thomas_van_der_Hammen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas van der Hammen, né à Schiedam (Pays-Bas) le 27 septembre 1924 et mort à Chía (Colombie) le 12 mars 2010[1], est un géologue, botaniste et archéologue hollandais.
-Il a étudié à l'Université de Leyde. Ses principaux travaux ont eu pour cadre l'Amérique du Sud et en particulier la Colombie, van der Hammen ayant principalement étudié les Andes et l'écosystème du páramo, notamment à Sumapaz[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas van der Hammen, né à Schiedam (Pays-Bas) le 27 septembre 1924 et mort à Chía (Colombie) le 12 mars 2010, est un géologue, botaniste et archéologue hollandais.
+Il a étudié à l'Université de Leyde. Ses principaux travaux ont eu pour cadre l'Amérique du Sud et en particulier la Colombie, van der Hammen ayant principalement étudié les Andes et l'écosystème du páramo, notamment à Sumapaz.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
